--- a/Grupo C - Burnout Chart.xlsx
+++ b/Grupo C - Burnout Chart.xlsx
@@ -290,11 +290,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="697515503"/>
-        <c:axId val="1196480794"/>
+        <c:axId val="1489335957"/>
+        <c:axId val="1780661186"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="697515503"/>
+        <c:axId val="1489335957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,10 +346,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196480794"/>
+        <c:crossAx val="1780661186"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1196480794"/>
+        <c:axId val="1780661186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697515503"/>
+        <c:crossAx val="1489335957"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -535,11 +535,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1011761200"/>
-        <c:axId val="1009126650"/>
+        <c:axId val="1278258418"/>
+        <c:axId val="1352331920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1011761200"/>
+        <c:axId val="1278258418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,10 +591,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009126650"/>
+        <c:crossAx val="1352331920"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1009126650"/>
+        <c:axId val="1352331920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +669,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011761200"/>
+        <c:crossAx val="1278258418"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -791,11 +791,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="549364978"/>
-        <c:axId val="1054725715"/>
+        <c:axId val="1110851638"/>
+        <c:axId val="1273332663"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="549364978"/>
+        <c:axId val="1110851638"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,10 +847,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1054725715"/>
+        <c:crossAx val="1273332663"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1054725715"/>
+        <c:axId val="1273332663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +925,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549364978"/>
+        <c:crossAx val="1110851638"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1047,11 +1047,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="695653373"/>
-        <c:axId val="8728911"/>
+        <c:axId val="22870790"/>
+        <c:axId val="1654199122"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="695653373"/>
+        <c:axId val="22870790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,10 +1103,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8728911"/>
+        <c:crossAx val="1654199122"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8728911"/>
+        <c:axId val="1654199122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1181,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695653373"/>
+        <c:crossAx val="22870790"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1303,11 +1303,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1373473410"/>
-        <c:axId val="1337800946"/>
+        <c:axId val="163318596"/>
+        <c:axId val="1476002333"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1373473410"/>
+        <c:axId val="163318596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,10 +1359,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1337800946"/>
+        <c:crossAx val="1476002333"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1337800946"/>
+        <c:axId val="1476002333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1437,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373473410"/>
+        <c:crossAx val="163318596"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1559,11 +1559,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1668563495"/>
-        <c:axId val="1935630278"/>
+        <c:axId val="1198334431"/>
+        <c:axId val="1517878186"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1668563495"/>
+        <c:axId val="1198334431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,10 +1615,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935630278"/>
+        <c:crossAx val="1517878186"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1935630278"/>
+        <c:axId val="1517878186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1693,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1668563495"/>
+        <c:crossAx val="1198334431"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1815,11 +1815,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1296772776"/>
-        <c:axId val="140554018"/>
+        <c:axId val="1252181896"/>
+        <c:axId val="946754770"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1296772776"/>
+        <c:axId val="1252181896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,10 +1871,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140554018"/>
+        <c:crossAx val="946754770"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140554018"/>
+        <c:axId val="946754770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296772776"/>
+        <c:crossAx val="1252181896"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2071,11 +2071,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="718559055"/>
-        <c:axId val="1123852430"/>
+        <c:axId val="1937529970"/>
+        <c:axId val="2045942330"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="718559055"/>
+        <c:axId val="1937529970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,10 +2127,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1123852430"/>
+        <c:crossAx val="2045942330"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1123852430"/>
+        <c:axId val="2045942330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +2205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718559055"/>
+        <c:crossAx val="1937529970"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2327,11 +2327,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2021168714"/>
-        <c:axId val="2100919117"/>
+        <c:axId val="747490534"/>
+        <c:axId val="82395306"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2021168714"/>
+        <c:axId val="747490534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,10 +2383,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100919117"/>
+        <c:crossAx val="82395306"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100919117"/>
+        <c:axId val="82395306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2461,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2021168714"/>
+        <c:crossAx val="747490534"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2583,11 +2583,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1633551289"/>
-        <c:axId val="1203218282"/>
+        <c:axId val="1236250312"/>
+        <c:axId val="1200435796"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1633551289"/>
+        <c:axId val="1236250312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,10 +2639,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1203218282"/>
+        <c:crossAx val="1200435796"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1203218282"/>
+        <c:axId val="1200435796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2717,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633551289"/>
+        <c:crossAx val="1236250312"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2839,11 +2839,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="266065683"/>
-        <c:axId val="451038238"/>
+        <c:axId val="615385779"/>
+        <c:axId val="1139333480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266065683"/>
+        <c:axId val="615385779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,10 +2895,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451038238"/>
+        <c:crossAx val="1139333480"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451038238"/>
+        <c:axId val="1139333480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +2973,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266065683"/>
+        <c:crossAx val="615385779"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3693,7 +3693,7 @@
         <v>25.0</v>
       </c>
       <c r="D6" s="5">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -3715,7 +3715,7 @@
         <v>15.0</v>
       </c>
       <c r="D8" s="5">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -3726,7 +3726,7 @@
         <v>10.0</v>
       </c>
       <c r="D9" s="5">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
@@ -3737,7 +3737,7 @@
         <v>5.0</v>
       </c>
       <c r="D10" s="5">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">

--- a/Grupo C - Burnout Chart.xlsx
+++ b/Grupo C - Burnout Chart.xlsx
@@ -21,7 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Segun terminan</t>
+  </si>
+  <si>
+    <t>Historias de usuarios en desarrollo</t>
+  </si>
   <si>
     <t>Día</t>
   </si>
@@ -31,12 +40,81 @@
   <si>
     <t>Horas Restantes (Real)</t>
   </si>
+  <si>
+    <t>HU-0.1</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos.</t>
+  </si>
+  <si>
+    <t>HU-0.1, HU-0.2, HU-0.3</t>
+  </si>
+  <si>
+    <t>HU-0.2</t>
+  </si>
+  <si>
+    <t>Creación de la base de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>HU-0.3</t>
+  </si>
+  <si>
+    <t>Normalización de la base de datos.</t>
+  </si>
+  <si>
+    <t>HU-0.3, HU-0.7, HU-0.8</t>
+  </si>
+  <si>
+    <t>HU-1.7</t>
+  </si>
+  <si>
+    <t>Acceso de administrador al sistema</t>
+  </si>
+  <si>
+    <t>HU-0.7, HU-1.8</t>
+  </si>
+  <si>
+    <t>HU-1.8</t>
+  </si>
+  <si>
+    <t>(Avances)</t>
+  </si>
+  <si>
+    <t>Registro de fecha y hora de acceso del administrador</t>
+  </si>
+  <si>
+    <t>HU-1.8, HU-1.9</t>
+  </si>
+  <si>
+    <t>HU-1.9</t>
+  </si>
+  <si>
+    <t>Restricción de acceso a perfiles de administrador</t>
+  </si>
+  <si>
+    <t>HU-1.9, HU-1.10, HU-1.11</t>
+  </si>
+  <si>
+    <t>HU-1.10</t>
+  </si>
+  <si>
+    <t>Cierre de sesión manual</t>
+  </si>
+  <si>
+    <t>HU-1.11</t>
+  </si>
+  <si>
+    <t>Cierre de sesión por inactividad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,13 +132,55 @@
       <name val="Verdana"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC34A"/>
+        <bgColor rgb="FF8BC34A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF26A69A"/>
+        <bgColor rgb="FF26A69A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF7E3"/>
+        <bgColor rgb="FFEEF7E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDF2F0"/>
+        <bgColor rgb="FFDDF2F0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,27 +189,82 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -100,16 +275,6 @@
       <font/>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF26A69A"/>
-          <bgColor rgb="FF26A69A"/>
-        </patternFill>
       </fill>
       <border/>
     </dxf>
@@ -133,62 +298,71 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF26A69A"/>
+          <bgColor rgb="FF26A69A"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="11">
-    <tableStyle count="3" pivot="0" name="Sprint 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle count="2" pivot="0" name="Sprint 1-style">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 2-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 3-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 4-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 5-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 6-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 7-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 8-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 9-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 10-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sprint 11-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="headerRow"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -233,7 +407,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$4</c:f>
+              <c:f>'Sprint 1'!$E$4</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -248,12 +422,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1'!$B$5:$B$11</c:f>
+              <c:f>'Sprint 1'!$D$5:$D$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$C$5:$C$11</c:f>
+              <c:f>'Sprint 1'!$E$5:$E$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -264,7 +438,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$D$4</c:f>
+              <c:f>'Sprint 1'!$F$4</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -279,22 +453,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1'!$B$5:$B$11</c:f>
+              <c:f>'Sprint 1'!$D$5:$D$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$D$5:$D$11</c:f>
+              <c:f>'Sprint 1'!$F$5:$F$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1489335957"/>
-        <c:axId val="1780661186"/>
+        <c:axId val="997912691"/>
+        <c:axId val="33910428"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1489335957"/>
+        <c:axId val="997912691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,10 +520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780661186"/>
+        <c:crossAx val="33910428"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1780661186"/>
+        <c:axId val="33910428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489335957"/>
+        <c:crossAx val="997912691"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -535,11 +709,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1278258418"/>
-        <c:axId val="1352331920"/>
+        <c:axId val="504867988"/>
+        <c:axId val="470867364"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1278258418"/>
+        <c:axId val="504867988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,10 +765,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352331920"/>
+        <c:crossAx val="470867364"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1352331920"/>
+        <c:axId val="470867364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1278258418"/>
+        <c:crossAx val="504867988"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -791,11 +965,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1110851638"/>
-        <c:axId val="1273332663"/>
+        <c:axId val="1838975431"/>
+        <c:axId val="1489793185"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1110851638"/>
+        <c:axId val="1838975431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,10 +1021,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273332663"/>
+        <c:crossAx val="1489793185"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1273332663"/>
+        <c:axId val="1489793185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +1099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110851638"/>
+        <c:crossAx val="1838975431"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1047,11 +1221,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22870790"/>
-        <c:axId val="1654199122"/>
+        <c:axId val="148151710"/>
+        <c:axId val="131991199"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22870790"/>
+        <c:axId val="148151710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,10 +1277,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654199122"/>
+        <c:crossAx val="131991199"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1654199122"/>
+        <c:axId val="131991199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1355,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22870790"/>
+        <c:crossAx val="148151710"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1303,11 +1477,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="163318596"/>
-        <c:axId val="1476002333"/>
+        <c:axId val="553856126"/>
+        <c:axId val="47360029"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163318596"/>
+        <c:axId val="553856126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,10 +1533,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1476002333"/>
+        <c:crossAx val="47360029"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1476002333"/>
+        <c:axId val="47360029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1611,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163318596"/>
+        <c:crossAx val="553856126"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1559,11 +1733,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1198334431"/>
-        <c:axId val="1517878186"/>
+        <c:axId val="1298818446"/>
+        <c:axId val="1011077653"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1198334431"/>
+        <c:axId val="1298818446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,10 +1789,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1517878186"/>
+        <c:crossAx val="1011077653"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1517878186"/>
+        <c:axId val="1011077653"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1867,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198334431"/>
+        <c:crossAx val="1298818446"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1815,11 +1989,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1252181896"/>
-        <c:axId val="946754770"/>
+        <c:axId val="1088202054"/>
+        <c:axId val="1154609302"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1252181896"/>
+        <c:axId val="1088202054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,10 +2045,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946754770"/>
+        <c:crossAx val="1154609302"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946754770"/>
+        <c:axId val="1154609302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +2123,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252181896"/>
+        <c:crossAx val="1088202054"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2071,11 +2245,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1937529970"/>
-        <c:axId val="2045942330"/>
+        <c:axId val="1899342401"/>
+        <c:axId val="1251744727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1937529970"/>
+        <c:axId val="1899342401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,10 +2301,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2045942330"/>
+        <c:crossAx val="1251744727"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045942330"/>
+        <c:axId val="1251744727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +2379,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1937529970"/>
+        <c:crossAx val="1899342401"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2327,11 +2501,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="747490534"/>
-        <c:axId val="82395306"/>
+        <c:axId val="1029569689"/>
+        <c:axId val="745101875"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="747490534"/>
+        <c:axId val="1029569689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,10 +2557,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82395306"/>
+        <c:crossAx val="745101875"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82395306"/>
+        <c:axId val="745101875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747490534"/>
+        <c:crossAx val="1029569689"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2583,11 +2757,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1236250312"/>
-        <c:axId val="1200435796"/>
+        <c:axId val="1159417156"/>
+        <c:axId val="582718188"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1236250312"/>
+        <c:axId val="1159417156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,10 +2813,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200435796"/>
+        <c:crossAx val="582718188"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1200435796"/>
+        <c:axId val="582718188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236250312"/>
+        <c:crossAx val="1159417156"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2839,11 +3013,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="615385779"/>
-        <c:axId val="1139333480"/>
+        <c:axId val="1150589590"/>
+        <c:axId val="2043541285"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="615385779"/>
+        <c:axId val="1150589590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,10 +3069,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1139333480"/>
+        <c:crossAx val="2043541285"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1139333480"/>
+        <c:axId val="2043541285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +3147,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615385779"/>
+        <c:crossAx val="1150589590"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3003,7 +3177,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -3330,11 +3504,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:D11" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E17:G23" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="3">
-    <tableColumn name="Día" id="1"/>
-    <tableColumn name="Horas Restantes (Ideal)" id="2"/>
-    <tableColumn name="Horas Restantes (Real)" id="3"/>
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -3654,107 +3828,3226 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="4.11"/>
-    <col customWidth="1" min="3" max="3" width="8.56"/>
-    <col customWidth="1" min="4" max="4" width="8.78"/>
+    <col customWidth="1" min="2" max="3" width="16.22"/>
+    <col customWidth="1" min="4" max="4" width="4.11"/>
+    <col customWidth="1" min="5" max="5" width="8.56"/>
+    <col customWidth="1" min="6" max="6" width="8.78"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="11">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="11">
         <v>30.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="E6" s="15">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="15">
         <v>25.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E8" s="15">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F8" s="15">
         <v>22.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="5">
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E9" s="19">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="F9" s="19">
         <v>15.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="5">
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="E10" s="15">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="F10" s="15">
         <v>14.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="5">
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="E11" s="19">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="F11" s="19">
         <v>11.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="5">
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="E12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1"/>
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="3"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="3"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="3"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="3"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="3"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="3"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="3"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="3"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="3"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="3"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="3"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="3"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="3"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="3"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="3"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="3"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="3"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="3"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="3"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="3"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="3"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="3"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="3"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="3"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="3"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="3"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="3"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="3"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="3"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="3"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="3"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="3"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="3"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="3"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="3"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="3"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="3"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="3"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="3"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="3"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="3"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="3"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="3"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="3"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="3"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="3"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="3"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="3"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="3"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="3"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="3"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="3"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="3"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="3"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="3"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="3"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="3"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="3"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="3"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="3"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="3"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="3"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="3"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="3"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="3"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="3"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="3"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="3"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="3"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="3"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="3"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="3"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="3"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="3"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="3"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="3"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="3"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="3"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="3"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="3"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="3"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="3"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="3"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="3"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="3"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="3"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="3"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="3"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="3"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="3"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="3"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="3"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="3"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="3"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="3"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="3"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="3"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="3"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="3"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="3"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="3"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="3"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="3"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="3"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="3"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="3"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="3"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="3"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="3"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="3"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="3"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="3"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="3"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="3"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="3"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="3"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="3"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="3"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="3"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="3"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="3"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="3"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="3"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="3"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="3"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="3"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="3"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="3"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="3"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="3"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="3"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="3"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="3"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="3"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="3"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="3"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="3"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="3"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="3"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="3"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="3"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="3"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="3"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="3"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="3"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="3"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="3"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="3"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="3"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="3"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="3"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="3"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="3"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="3"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="3"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="3"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="3"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="3"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="3"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="3"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="3"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="3"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="3"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="3"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="3"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="3"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="3"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="3"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="3"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="3"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="3"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="3"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="3"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="3"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="3"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="3"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="3"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="3"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="3"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="3"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="3"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="3"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="3"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="3"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="3"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="3"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="3"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="3"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="3"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="3"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="3"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="3"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="3"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="3"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="3"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="3"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="3"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="3"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="3"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="3"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="3"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="3"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="3"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="3"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="3"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="3"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="3"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="3"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="3"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="3"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="3"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="3"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="3"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="3"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="3"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="3"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="3"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="3"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="3"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="3"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="3"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="3"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="3"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="3"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="3"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="3"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="3"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="3"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="3"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="3"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="3"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="3"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="3"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="3"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="3"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="3"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="3"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="3"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="3"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="3"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="3"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="3"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="3"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="3"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="3"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="3"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="3"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="3"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="3"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="3"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="3"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="3"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="3"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="3"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="3"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="3"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="3"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="3"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="3"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="3"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="3"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="3"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="3"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="3"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="3"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="3"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="3"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="3"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="3"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="3"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="3"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="3"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="3"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="3"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="3"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="3"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="3"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="3"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="3"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="3"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="3"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="3"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="3"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="3"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="3"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="3"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="3"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="3"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="3"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="3"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="3"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="3"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="3"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="3"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="3"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="3"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="3"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="3"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="3"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="3"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="3"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="3"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="3"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="3"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="3"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="3"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="3"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="3"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="3"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="3"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="3"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="3"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="3"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="3"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="3"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="3"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="3"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="3"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="3"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="3"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="3"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="3"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="3"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="3"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="3"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="3"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="3"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="3"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="3"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="3"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="3"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="3"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="3"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="3"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="3"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="3"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="3"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="3"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="3"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="3"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="3"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="3"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="3"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="3"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="3"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="3"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="3"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="3"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="3"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="3"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="3"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="3"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="3"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="3"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="3"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="3"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="3"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="3"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="3"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="3"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="3"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="3"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="3"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="3"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="3"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="3"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="3"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="3"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="3"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="3"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="3"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="3"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="3"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="3"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="3"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="3"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="3"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="3"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="3"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="3"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="3"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="3"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="3"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="3"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="3"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="3"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="3"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="3"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="3"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="3"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="3"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="3"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="3"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="3"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="3"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="3"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="3"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="3"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="3"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="3"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="3"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="3"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="3"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="3"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="3"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="3"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="3"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="3"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="3"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="3"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="3"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="3"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="3"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="3"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="3"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="3"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="3"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="3"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="3"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="3"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="3"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="3"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="3"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="3"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="3"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="3"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="3"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="3"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="3"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="3"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="3"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="3"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="3"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="3"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="3"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="3"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="3"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="3"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="3"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="3"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="3"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="3"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="3"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="3"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="3"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="3"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="3"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="3"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="3"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="3"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="3"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="3"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="3"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="3"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="3"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="3"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="3"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="3"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="3"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="3"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="3"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="3"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="3"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="3"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="3"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="3"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="3"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="3"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="3"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="3"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="3"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="3"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="3"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="3"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="3"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="3"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="3"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="3"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="3"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="3"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="3"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="3"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="3"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="3"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="3"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="3"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="3"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="3"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="3"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="3"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="3"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="3"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="3"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="3"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="3"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="3"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="3"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="3"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="3"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="3"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="3"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="3"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="3"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="3"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="3"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="3"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="3"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="3"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="3"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="3"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="3"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="3"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="3"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="3"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="3"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="3"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="3"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="3"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="3"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="3"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="3"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="3"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="3"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="3"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="3"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="3"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="3"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="3"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="3"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="3"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="3"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="3"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="3"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="3"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="3"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="3"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="3"/>
+    </row>
+    <row r="1001">
+      <c r="C1001" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3781,91 +7074,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -3899,91 +7192,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4017,91 +7310,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4135,91 +7428,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4253,91 +7546,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4371,91 +7664,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4489,91 +7782,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4607,91 +7900,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4725,91 +8018,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -4843,91 +8136,91 @@
       <c r="A1" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5">
-      <c r="B5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="22">
         <v>30.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>25.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>2.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>20.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>3.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>15.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>4.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>10.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>5.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>5.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23">
         <v>0.0</v>
       </c>
     </row>
